--- a/datas/student_excel/student_excel_clean.xlsx
+++ b/datas/student_excel/student_excel_clean.xlsx
@@ -1,40 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyce/kingfish-python/kingfish-python/datas/student_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD950707-F23E-5346-8796-9B063420AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>小王</t>
+  </si>
+  <si>
+    <t>小刚</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,26 +104,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,172 +430,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>姓名</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>科目</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>分数</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>小明</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>语文</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>小明</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>数学</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>小明</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>小王</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>语文</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>小王</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>数学</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>小王</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>小刚</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>语文</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>小刚</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>数学</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>小刚</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>英语</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/datas/student_excel/student_excel_clean.xlsx
+++ b/datas/student_excel/student_excel_clean.xlsx
@@ -2,20 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyce/kingfish-python/kingfish-python/datas/student_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD950707-F23E-5346-8796-9B063420AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AD7462-D491-1843-8712-3CDF839C6394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -431,6 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -438,8 +451,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
